--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -88,13 +88,13 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
@@ -1045,25 +1045,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6695652173913044</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="L16">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1071,25 +1071,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6534653465346535</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L17">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1097,25 +1097,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6521739130434783</v>
+        <v>0.6443514644351465</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1201,25 +1201,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5365853658536586</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L22">
         <v>176</v>
       </c>
       <c r="M22">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="10:17">
